--- a/th_dialect_dict/datasets/north_ฉ.xlsx
+++ b/th_dialect_dict/datasets/north_ฉ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC1048B8495B45945ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2216687D-3035-48F5-87D9-85540C017429}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC1048B8495B45945ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B59BC2-4365-465C-AC16-10427E8753F3}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2565" windowWidth="23025" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="1200" windowWidth="22245" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>ว. หก - สำหรับประกอบหน้าคำศัพท์อื่น ๆ เช่น ฉขัตติ ฉกกษัตริย์ คือ กษัตริย์ ๖ พระองค์ หรือ ช้างฉทันต์ - ช้าง ๖ งา เป็นต้น</t>
   </si>
@@ -342,12 +342,6 @@
     <t>สักกติ</t>
   </si>
   <si>
-    <t xml:space="preserve">สขัตติ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">สักขติ </t>
-  </si>
-  <si>
     <t xml:space="preserve">ฉัททันต์ </t>
   </si>
   <si>
@@ -360,10 +354,16 @@
     <t>สันเสลก</t>
   </si>
   <si>
-    <t>สม</t>
-  </si>
-  <si>
     <t>โสม</t>
+  </si>
+  <si>
+    <t>สขัตติ</t>
+  </si>
+  <si>
+    <t>สักขติ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สม </t>
   </si>
 </sst>
 </file>
@@ -416,19 +416,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,519 +715,550 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>102</v>
       </c>
     </row>
